--- a/btpy/res/name_male_data.xlsx
+++ b/btpy/res/name_male_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4236"/>
+    <workbookView windowWidth="15360" windowHeight="5867"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="805">
   <si>
     <t>russian</t>
   </si>
@@ -1445,351 +1445,375 @@
     <t>Diego</t>
   </si>
   <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Tomaz</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Isaack</t>
+  </si>
+  <si>
+    <t>Maximilano</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Ignasio</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Teo</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Leonel</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
     <t>Leo</t>
   </si>
   <si>
+    <t>Fermin</t>
+  </si>
+  <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>Bautista</t>
+  </si>
+  <si>
+    <t>Valentino</t>
+  </si>
+  <si>
+    <t>Benicio</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Jeronimo</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Hernan</t>
+  </si>
+  <si>
+    <t>Panfilo</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Amadeo</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Abrahan</t>
+  </si>
+  <si>
     <t>Alvaro</t>
   </si>
   <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Adrian</t>
+    <t>Anacleto</t>
+  </si>
+  <si>
+    <t>Aloisio</t>
+  </si>
+  <si>
+    <t>Anselmo</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Baltasar</t>
+  </si>
+  <si>
+    <t>Benedito</t>
+  </si>
+  <si>
+    <t>Bonifasio</t>
+  </si>
+  <si>
+    <t>Caetano</t>
+  </si>
+  <si>
+    <t>Casimiro</t>
+  </si>
+  <si>
+    <t>Celestino</t>
+  </si>
+  <si>
+    <t>Celso</t>
+  </si>
+  <si>
+    <t>Celio</t>
+  </si>
+  <si>
+    <t>Clemente</t>
+  </si>
+  <si>
+    <t>Cosme</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Dinis</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
   </si>
   <si>
     <t>Enzo</t>
   </si>
   <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Jesus</t>
+    <t>Estevao</t>
+  </si>
+  <si>
+    <t>Eugenio</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Gualter</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Yago</t>
+  </si>
+  <si>
+    <t>Anastasio</t>
+  </si>
+  <si>
+    <t>Epifanio</t>
+  </si>
+  <si>
+    <t>Isidoro</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>Maximiliano</t>
+  </si>
+  <si>
+    <t>Jordi</t>
+  </si>
+  <si>
+    <t>Toni</t>
+  </si>
+  <si>
+    <t>Eloi</t>
+  </si>
+  <si>
+    <t>Iker</t>
+  </si>
+  <si>
+    <t>Iñaki</t>
   </si>
   <si>
     <t>Luca</t>
   </si>
   <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Dario</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Guillermo</t>
-  </si>
-  <si>
-    <t>Rafael</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Alonso</t>
-  </si>
-  <si>
-    <t>Ismael</t>
-  </si>
-  <si>
-    <t>Axel</t>
-  </si>
-  <si>
-    <t>Ignasio</t>
-  </si>
-  <si>
-    <t>Fabio</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Teo</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Luka</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Camilo</t>
-  </si>
-  <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Vicente</t>
-  </si>
-  <si>
-    <t>Leonel</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Fermin</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Bautista</t>
-  </si>
-  <si>
-    <t>Valentino</t>
-  </si>
-  <si>
-    <t>Benicio</t>
-  </si>
-  <si>
-    <t>Jeronimo</t>
-  </si>
-  <si>
-    <t>Thiago</t>
-  </si>
-  <si>
-    <t>Ramon</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>Joaquin</t>
-  </si>
-  <si>
-    <t>Cristobal</t>
-  </si>
-  <si>
-    <t>Vasco</t>
-  </si>
-  <si>
-    <t>Hernan</t>
-  </si>
-  <si>
-    <t>Panfilo</t>
-  </si>
-  <si>
-    <t>Hernando</t>
-  </si>
-  <si>
-    <t>Amadeo</t>
-  </si>
-  <si>
-    <t>Alfonso</t>
-  </si>
-  <si>
-    <t>Abrahan</t>
-  </si>
-  <si>
-    <t>Anacleto</t>
-  </si>
-  <si>
-    <t>Aloisio</t>
-  </si>
-  <si>
-    <t>Anselmo</t>
-  </si>
-  <si>
-    <t>Arturo</t>
-  </si>
-  <si>
-    <t>Baltasar</t>
-  </si>
-  <si>
-    <t>Benedito</t>
-  </si>
-  <si>
-    <t>Bonifasio</t>
-  </si>
-  <si>
-    <t>Caetano</t>
-  </si>
-  <si>
-    <t>Casimiro</t>
-  </si>
-  <si>
-    <t>Celestino</t>
-  </si>
-  <si>
-    <t>Celso</t>
-  </si>
-  <si>
-    <t>Celio</t>
-  </si>
-  <si>
-    <t>Clemente</t>
-  </si>
-  <si>
-    <t>Cosme</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Dinis</t>
-  </si>
-  <si>
-    <t>Duarte</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Estevao</t>
-  </si>
-  <si>
-    <t>Eugenio</t>
+    <t>Xurxo</t>
+  </si>
+  <si>
+    <t>Benemerito</t>
+  </si>
+  <si>
+    <t>Candito</t>
+  </si>
+  <si>
+    <t>Damasio</t>
   </si>
   <si>
     <t>Eustaquio</t>
   </si>
   <si>
-    <t>Flavio</t>
-  </si>
-  <si>
-    <t>Gualter</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Joao</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Osvaldo</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Yago</t>
-  </si>
-  <si>
-    <t>Anastasio</t>
-  </si>
-  <si>
-    <t>Epifanio</t>
-  </si>
-  <si>
-    <t>Isidoro</t>
-  </si>
-  <si>
-    <t>Octavio</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Jordi</t>
-  </si>
-  <si>
-    <t>Toni</t>
-  </si>
-  <si>
-    <t>Eloi</t>
-  </si>
-  <si>
-    <t>Iker</t>
-  </si>
-  <si>
-    <t>Iñaki</t>
-  </si>
-  <si>
-    <t>Xurxo</t>
-  </si>
-  <si>
-    <t>Benemerito</t>
-  </si>
-  <si>
-    <t>Candito</t>
-  </si>
-  <si>
-    <t>Damasio</t>
-  </si>
-  <si>
     <t>Evaristo</t>
   </si>
   <si>
@@ -1815,6 +1839,126 @@
   </si>
   <si>
     <t>Vitorio</t>
+  </si>
+  <si>
+    <t>Agustin</t>
+  </si>
+  <si>
+    <t>Buatista</t>
+  </si>
+  <si>
+    <t>Nadal</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hilario</t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t>Izan</t>
+  </si>
+  <si>
+    <t>Eleuterio</t>
+  </si>
+  <si>
+    <t>Crescencio</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Gervasio</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>Adan</t>
+  </si>
+  <si>
+    <t>Rayan</t>
+  </si>
+  <si>
+    <t>Espaminondo</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>Uldarico</t>
+  </si>
+  <si>
+    <t>Tesifonte</t>
+  </si>
+  <si>
+    <t>Tibursio</t>
+  </si>
+  <si>
+    <t>Alberic</t>
+  </si>
+  <si>
+    <t>Adria</t>
+  </si>
+  <si>
+    <t>Alvar</t>
+  </si>
+  <si>
+    <t>Aleix</t>
+  </si>
+  <si>
+    <t>Amadeos</t>
+  </si>
+  <si>
+    <t>Adreu</t>
+  </si>
+  <si>
+    <t>Aran</t>
+  </si>
+  <si>
+    <t>Bernabe</t>
+  </si>
+  <si>
+    <t>Bernat</t>
+  </si>
+  <si>
+    <t>Blai</t>
+  </si>
+  <si>
+    <t>Biel</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>Estavan</t>
+  </si>
+  <si>
+    <t>Genar</t>
+  </si>
+  <si>
+    <t>Jonatan</t>
+  </si>
+  <si>
+    <t>Leopoldo</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Raimundo</t>
+  </si>
+  <si>
+    <t>Zoel</t>
   </si>
   <si>
     <t>turkish</t>
@@ -2965,6 +3109,15 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3232,10 +3385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:FC15"/>
+  <dimension ref="A2:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4765,7 +4918,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:159">
+    <row r="10" spans="1:201">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -4803,76 +4956,76 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
+        <v>228</v>
+      </c>
+      <c r="N10" t="s">
         <v>473</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>474</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>475</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>476</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>477</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>478</v>
-      </c>
-      <c r="S10" t="s">
-        <v>479</v>
       </c>
       <c r="T10" t="s">
         <v>384</v>
       </c>
       <c r="U10" t="s">
+        <v>479</v>
+      </c>
+      <c r="V10" t="s">
         <v>480</v>
-      </c>
-      <c r="V10" t="s">
-        <v>481</v>
       </c>
       <c r="W10" t="s">
         <v>34</v>
       </c>
       <c r="X10" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y10" t="s">
         <v>482</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA10" t="s">
         <v>483</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>485</v>
       </c>
       <c r="AB10" t="s">
         <v>266</v>
       </c>
       <c r="AC10" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE10" t="s">
         <v>486</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>487</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>488</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>489</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AI10" t="s">
         <v>490</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
         <v>491</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>493</v>
       </c>
       <c r="AK10" t="s">
         <v>444</v>
@@ -4884,76 +5037,76 @@
         <v>191</v>
       </c>
       <c r="AN10" t="s">
+        <v>492</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>494</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AR10" t="s">
         <v>495</v>
       </c>
-      <c r="AP10" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ10" t="s">
+      <c r="AS10" t="s">
         <v>496</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AT10" t="s">
         <v>497</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>498</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>499</v>
       </c>
       <c r="AU10" t="s">
         <v>265</v>
       </c>
       <c r="AV10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX10" t="s">
         <v>500</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AY10" t="s">
         <v>501</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AZ10" t="s">
         <v>502</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="BA10" t="s">
         <v>503</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BB10" t="s">
         <v>504</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>505</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BD10" t="s">
         <v>506</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BE10" t="s">
         <v>507</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>508</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BG10" t="s">
         <v>509</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BH10" t="s">
         <v>510</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BI10" t="s">
         <v>511</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BJ10" t="s">
         <v>512</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BK10" t="s">
         <v>513</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>514</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>515</v>
       </c>
       <c r="BL10" t="s">
         <v>185</v>
@@ -4962,800 +5115,929 @@
         <v>291</v>
       </c>
       <c r="BN10" t="s">
+        <v>514</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>515</v>
+      </c>
+      <c r="BP10" t="s">
         <v>516</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BQ10" t="s">
         <v>517</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BR10" t="s">
         <v>518</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>472</v>
-      </c>
-      <c r="BR10" t="s">
+      <c r="BS10" t="s">
         <v>519</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>520</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>521</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>522</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>523</v>
       </c>
-      <c r="BW10" t="s">
-        <v>484</v>
-      </c>
       <c r="BX10" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="BY10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BZ10" t="s">
         <v>240</v>
       </c>
       <c r="CA10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="CB10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="CC10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="CD10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="CE10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CF10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CG10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CH10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="CI10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="CJ10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="CK10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="CL10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="CM10" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="CN10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="CO10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="CP10" t="s">
         <v>223</v>
       </c>
       <c r="CQ10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="CR10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="CS10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="CT10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="CU10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="CV10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="CW10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="CX10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CY10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CZ10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="DA10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="DB10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="DC10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="DD10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DE10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DF10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="DG10" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="DH10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="DI10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="DJ10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="DK10" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="DL10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="DM10" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="DN10" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="DO10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="DP10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="DQ10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="DR10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="DS10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="DT10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="DU10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="DV10" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="DW10" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="DX10" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="DY10" t="s">
         <v>280</v>
       </c>
       <c r="DZ10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="EA10" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="EB10" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="EC10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="ED10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="EE10" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="EF10" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="EG10" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="EH10" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="EI10" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="EJ10" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="EK10" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="EL10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="EM10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="EN10" t="s">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="EO10" t="s">
         <v>58</v>
       </c>
       <c r="EP10" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="EQ10" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="ER10" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="ES10" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="ET10" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="EU10" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="EV10" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="EW10" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="EX10" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="EY10" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="EZ10" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="FA10" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="FB10" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="FC10" t="s">
-        <v>595</v>
+        <v>603</v>
+      </c>
+      <c r="FD10" t="s">
+        <v>604</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>281</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>605</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>606</v>
+      </c>
+      <c r="FH10" t="s">
+        <v>607</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>608</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>609</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>610</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>611</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>612</v>
+      </c>
+      <c r="FN10" t="s">
+        <v>613</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>614</v>
+      </c>
+      <c r="FP10" t="s">
+        <v>615</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>616</v>
+      </c>
+      <c r="FR10" t="s">
+        <v>617</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>618</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>619</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>242</v>
+      </c>
+      <c r="FV10" t="s">
+        <v>620</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>621</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>622</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>623</v>
+      </c>
+      <c r="FZ10" t="s">
+        <v>624</v>
+      </c>
+      <c r="GA10" t="s">
+        <v>625</v>
+      </c>
+      <c r="GB10" t="s">
+        <v>626</v>
+      </c>
+      <c r="GC10" t="s">
+        <v>627</v>
+      </c>
+      <c r="GD10" t="s">
+        <v>628</v>
+      </c>
+      <c r="GE10" t="s">
+        <v>629</v>
+      </c>
+      <c r="GF10" t="s">
+        <v>630</v>
+      </c>
+      <c r="GG10" t="s">
+        <v>631</v>
+      </c>
+      <c r="GH10" t="s">
+        <v>632</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>633</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>634</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>635</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>636</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>637</v>
+      </c>
+      <c r="GN10" t="s">
+        <v>638</v>
+      </c>
+      <c r="GO10" t="s">
+        <v>639</v>
+      </c>
+      <c r="GP10" t="s">
+        <v>640</v>
+      </c>
+      <c r="GQ10" t="s">
+        <v>641</v>
+      </c>
+      <c r="GR10" t="s">
+        <v>642</v>
+      </c>
+      <c r="GS10" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="B11" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="C11" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="D11" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="F11" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="G11" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="I11" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="J11" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="K11" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="L11" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="M11" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="N11" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="O11" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="P11" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="Q11" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="R11" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="S11" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="T11" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="U11" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="V11" t="s">
         <v>214</v>
       </c>
       <c r="W11" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="X11" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="Y11" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="Z11" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="AA11" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="AB11" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="AC11" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="AD11" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="AE11" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="B12" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="C12" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="G12" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="H12" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="I12" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="J12" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="K12" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="L12" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="M12" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="N12" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="O12" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="P12" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="Q12" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="R12" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="S12" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="T12" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="U12" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="V12" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="W12" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="X12" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="Y12" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="Z12" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="AA12" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="AB12" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="AC12" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="AD12" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="AE12" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="AF12" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="AG12" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
       <c r="AH12" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="AI12" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="AJ12" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
       <c r="AK12" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="AL12" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="AM12" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="AN12" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="AO12" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="AP12" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="AQ12" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="AR12" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="AS12" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
       <c r="AT12" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="AU12" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="AV12" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="AW12" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="AX12" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="AY12" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="AZ12" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="BA12" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="BB12" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="BC12" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="BD12" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="BE12" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="C13" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="D13" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="E13" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="F13" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="G13" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="H13" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="I13" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="J13" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="K13" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="L13" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="M13" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="N13" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="O13" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="P13" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="Q13" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="R13" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="S13" t="s">
-        <v>697</v>
+        <v>745</v>
       </c>
       <c r="T13" t="s">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="U13" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
       <c r="V13" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="W13" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="X13" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="Y13" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="Z13" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="AA13" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
       <c r="AB13" t="s">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="AC13" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="AD13" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="AE13" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="AF13" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="AG13" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="AH13" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="AI13" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="AJ13" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="B14" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="C14" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="D14" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="E14" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="G14" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="H14" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="I14" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="J14" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="K14" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="L14" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="M14" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="N14" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="O14" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="P14" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="Q14" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="R14" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="S14" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="T14" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="U14" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="V14" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="W14" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="X14" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="Y14" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="Z14" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="AA14" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="AB14" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="AC14" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="AD14" t="s">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="AE14" t="s">
-        <v>745</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>746</v>
+        <v>794</v>
       </c>
       <c r="B15" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
       <c r="C15" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="D15" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="E15" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="F15" t="s">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="H15" t="s">
-        <v>752</v>
+        <v>800</v>
       </c>
       <c r="I15" t="s">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="J15" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="K15" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
       <c r="L15" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="$A10:$XFD10">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
